--- a/testData/address_rule_test_data.xlsx
+++ b/testData/address_rule_test_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8370" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8370"/>
   </bookViews>
   <sheets>
     <sheet name="add_address_rule" sheetId="3" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="125">
   <si>
     <t>测试点说明</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -490,6 +490,10 @@
   </si>
   <si>
     <t>地址格式不正确</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>qawsed@123</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -982,8 +986,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:XAO9"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="P14" sqref="P14"/>
+    <sheetView tabSelected="1" topLeftCell="N1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="Q16" sqref="Q16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1005,7 +1009,8 @@
     <col min="15" max="15" width="41.25" style="2" customWidth="1"/>
     <col min="16" max="16" width="35.75" style="2" customWidth="1"/>
     <col min="17" max="17" width="9.125" style="2" customWidth="1"/>
-    <col min="18" max="19" width="5.875" style="2" customWidth="1"/>
+    <col min="18" max="18" width="5.875" style="2" customWidth="1"/>
+    <col min="19" max="19" width="12.5" style="2" customWidth="1"/>
     <col min="20" max="20" width="25.625" style="3" customWidth="1"/>
     <col min="21" max="16384" width="9" style="3"/>
   </cols>
@@ -1121,8 +1126,8 @@
       <c r="R2" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="S2" s="9">
-        <v>1</v>
+      <c r="S2" s="13" t="s">
+        <v>124</v>
       </c>
       <c r="T2" s="9" t="s">
         <v>18</v>
@@ -1179,8 +1184,8 @@
       <c r="R3" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="S3" s="9">
-        <v>1</v>
+      <c r="S3" s="13" t="s">
+        <v>124</v>
       </c>
       <c r="T3" s="9" t="s">
         <v>18</v>
@@ -17482,8 +17487,8 @@
       <c r="R4" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="S4" s="9">
-        <v>1</v>
+      <c r="S4" s="13" t="s">
+        <v>124</v>
       </c>
       <c r="T4" s="9" t="s">
         <v>18</v>
@@ -17539,8 +17544,8 @@
       <c r="R5" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="S5" s="9">
-        <v>1</v>
+      <c r="S5" s="13" t="s">
+        <v>124</v>
       </c>
       <c r="T5" s="9" t="s">
         <v>18</v>
@@ -17597,8 +17602,8 @@
       <c r="R6" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="S6" s="9">
-        <v>1</v>
+      <c r="S6" s="13" t="s">
+        <v>124</v>
       </c>
       <c r="T6" s="9" t="s">
         <v>18</v>
@@ -17657,8 +17662,8 @@
       <c r="R7" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="S7" s="9">
-        <v>1</v>
+      <c r="S7" s="13" t="s">
+        <v>124</v>
       </c>
       <c r="T7" s="9" t="s">
         <v>18</v>
@@ -17717,8 +17722,8 @@
       <c r="R8" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="S8" s="9">
-        <v>1</v>
+      <c r="S8" s="13" t="s">
+        <v>124</v>
       </c>
       <c r="T8" s="9" t="s">
         <v>18</v>
@@ -17777,8 +17782,8 @@
       <c r="R9" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="S9" s="9">
-        <v>1</v>
+      <c r="S9" s="13" t="s">
+        <v>124</v>
       </c>
       <c r="T9" s="9" t="s">
         <v>18</v>
@@ -17786,8 +17791,12 @@
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="S2" r:id="rId1"/>
+    <hyperlink ref="S3:S9" r:id="rId2" display="qawsed@123"/>
+  </hyperlinks>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -17902,7 +17911,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
